--- a/data/trans_dic/P79$recibos_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P79$recibos_2023-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.3061240336152161</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.3214773089330928</v>
+        <v>0.3214773089330927</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.3145639413431841</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.258738475454131</v>
+        <v>0.2591726810011443</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2845904341097601</v>
+        <v>0.2828116462968771</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2831750719684287</v>
+        <v>0.2850962608043869</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3542723213797301</v>
+        <v>0.3599863121853999</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3619346871144237</v>
+        <v>0.3617537411963059</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.344160053990596</v>
+        <v>0.3464247847188878</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1150239234616671</v>
+        <v>0.1138337309543265</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1208291852723424</v>
+        <v>0.1200705262896621</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1224023046278656</v>
+        <v>0.1238711120110701</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1642466291615796</v>
+        <v>0.1636686275526739</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1558681174305858</v>
+        <v>0.1561119079863627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.15348910418668</v>
+        <v>0.1521880092729134</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01571937380528729</v>
+        <v>0.0160289565545083</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01860712351216954</v>
+        <v>0.01869545170274774</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01986863036238089</v>
+        <v>0.01944782984931118</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03649552019873467</v>
+        <v>0.03745706772973515</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03912373014979627</v>
+        <v>0.03915661844161201</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03394041778398095</v>
+        <v>0.03368752661548301</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.004315820217867177</v>
+        <v>0.004315820217867176</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.003754041692217601</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.004045145509704606</v>
+        <v>0.004045145509704605</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001181862445425988</v>
+        <v>0.001193232887983484</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0008935733697605918</v>
+        <v>0.0009001770380291164</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001793739919991144</v>
+        <v>0.001643531869632357</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0122858589863791</v>
+        <v>0.01208701031970654</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009874796426324758</v>
+        <v>0.009399841631778502</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.008723310864650892</v>
+        <v>0.008151169862484493</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.08615415799282475</v>
+        <v>0.08615415799282473</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.09904473042767492</v>
+        <v>0.09904473042767493</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.09276307962408929</v>
+        <v>0.09276307962408932</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07630657041286185</v>
+        <v>0.07706847146028152</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08983786075115072</v>
+        <v>0.08997888798531178</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08581858272878951</v>
+        <v>0.08591056011446467</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09599660187697855</v>
+        <v>0.09762648652070956</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1084825950607255</v>
+        <v>0.1090802085896055</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1005866014775857</v>
+        <v>0.1005086929572883</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>111957</v>
+        <v>112145</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>150334</v>
+        <v>149395</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>272117</v>
+        <v>273964</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>153295</v>
+        <v>155767</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>191191</v>
+        <v>191096</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>330721</v>
+        <v>332897</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>109657</v>
+        <v>108522</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>133719</v>
+        <v>132880</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>252151</v>
+        <v>255176</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>156582</v>
+        <v>156031</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>172496</v>
+        <v>172766</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>316190</v>
+        <v>313510</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16387</v>
+        <v>16710</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19319</v>
+        <v>19411</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>41342</v>
+        <v>40467</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38046</v>
+        <v>39049</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>40621</v>
+        <v>40656</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>70622</v>
+        <v>70096</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1142</v>
+        <v>1153</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3345</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11871</v>
+        <v>11679</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8872</v>
+        <v>8445</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16266</v>
+        <v>15199</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>259044</v>
+        <v>261631</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>320869</v>
+        <v>321373</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>597849</v>
+        <v>598490</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>325887</v>
+        <v>331420</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>387461</v>
+        <v>389596</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>700729</v>
+        <v>700186</v>
       </c>
     </row>
     <row r="24">
